--- a/newcandidates.xlsx
+++ b/newcandidates.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_0B79F1A5D36050336BFA2311595ED87656CD0319" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35E80D0B-8736-4E72-A46A-1ACF32F539A1}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achatoun\Downloads\LumenusSolon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6B03F9-77C8-4AD3-B951-1C1CE4819194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,9 +586,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.42578125" customWidth="1"/>
     <col min="2" max="2" width="33.7109375" customWidth="1"/>
@@ -592,7 +599,7 @@
     <col min="5" max="5" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -626,7 +633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -643,7 +650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -660,7 +667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -677,7 +684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -694,7 +701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -711,7 +718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -728,7 +735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -745,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -762,7 +769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -779,7 +786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -796,7 +803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -813,7 +820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -830,7 +837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -847,7 +854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -864,7 +871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -881,7 +888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -898,7 +905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -915,7 +922,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -932,7 +939,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -949,7 +956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -966,7 +973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -983,7 +990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1000,7 +1007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1017,7 +1024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1034,7 +1041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1068,7 +1075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1085,7 +1092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1102,7 +1109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1119,7 +1126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1136,7 +1143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1153,7 +1160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1170,7 +1177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1184,10 +1191,10 @@
         <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1204,7 +1211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
